--- a/docs/functions_and_arguments.xlsx
+++ b/docs/functions_and_arguments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\proj\ROAD\road\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8C0DBD-4BE0-4C00-8FE9-8E9611570A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCB1F0F-C932-4D14-BF39-6BA796CD98A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="10440" windowWidth="19410" windowHeight="10545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="43">
   <si>
     <t>road_get_localities()</t>
   </si>
@@ -93,9 +93,6 @@
     <t>technocomplex</t>
   </si>
   <si>
-    <t>assemblages</t>
-  </si>
-  <si>
     <t>tool_list</t>
   </si>
   <si>
@@ -144,9 +141,6 @@
     <t>•</t>
   </si>
   <si>
-    <t>locality</t>
-  </si>
-  <si>
     <t>General arguments</t>
   </si>
   <si>
@@ -157,13 +151,16 @@
   </si>
   <si>
     <t>dating_method</t>
+  </si>
+  <si>
+    <t>family</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,6 +177,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -205,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -227,6 +231,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -508,22 +515,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA191576-E575-4853-A1BC-43BBBFBC35B4}">
-  <dimension ref="A1:AD14"/>
+  <dimension ref="A1:AC14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" customWidth="1"/>
-    <col min="3" max="30" width="3.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.7265625" customWidth="1"/>
+    <col min="2" max="2" width="33.1796875" customWidth="1"/>
+    <col min="3" max="29" width="3.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="C1" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -533,11 +540,11 @@
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
+      <c r="L1" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="M1" s="6"/>
-      <c r="N1" s="6" t="s">
-        <v>41</v>
-      </c>
+      <c r="N1" s="6"/>
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
@@ -553,9 +560,8 @@
       <c r="AA1" s="6"/>
       <c r="AB1" s="6"/>
       <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
     </row>
-    <row r="2" spans="1:30" ht="164.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="158.5" x14ac:dyDescent="0.35">
       <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
@@ -584,34 +590,34 @@
         <v>19</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="O2" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="V2" s="4" t="s">
         <v>29</v>
@@ -637,50 +643,43 @@
       <c r="AC2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AD2" s="4" t="s">
-        <v>37</v>
-      </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -697,46 +696,41 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A4" s="7"/>
       <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -753,52 +747,47 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>38</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
@@ -813,51 +802,46 @@
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N6" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="O6" s="1"/>
-      <c r="P6" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
@@ -871,55 +855,50 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>38</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="O7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
@@ -931,54 +910,49 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" s="7"/>
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>38</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
+      <c r="Q8" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="R8" s="1"/>
-      <c r="S8" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
@@ -989,55 +963,50 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A9" s="7"/>
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>38</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
+      <c r="R9" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="S9" s="1"/>
-      <c r="T9" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
@@ -1047,56 +1016,51 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A10" s="7"/>
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>38</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
+      <c r="S10" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="T10" s="1"/>
-      <c r="U10" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
@@ -1105,57 +1069,52 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A11" s="7"/>
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>38</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="T11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="U11" s="3"/>
+      <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
@@ -1163,46 +1122,41 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
-      <c r="AD11" s="1"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A12" s="7"/>
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>38</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -1211,58 +1165,53 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
+      <c r="V12" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="W12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="X12" s="3" t="s">
-        <v>38</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
-      <c r="AD12" s="1"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A13" s="7"/>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>38</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -1271,58 +1220,57 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z13" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="V13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="X13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A14" s="7"/>
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>38</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -1330,29 +1278,34 @@
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
+      <c r="U14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W14" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD14" s="3" t="s">
-        <v>38</v>
+      <c r="Z14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC14" s="8" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="N1:AD1"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="L1:AC1"/>
     <mergeCell ref="A3:A14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/functions_and_arguments.xlsx
+++ b/docs/functions_and_arguments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\proj\ROAD\road\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCB1F0F-C932-4D14-BF39-6BA796CD98A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59D075B-3DD5-4368-981B-51B975D6DAB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2660" yWindow="2660" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -226,14 +226,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -518,7 +518,7 @@
   <dimension ref="A1:AC14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+      <selection activeCell="AF15" sqref="AF15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -529,37 +529,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6" t="s">
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
     </row>
     <row r="2" spans="1:29" ht="158.5" x14ac:dyDescent="0.35">
       <c r="C2" s="4" t="s">
@@ -645,7 +645,7 @@
       </c>
     </row>
     <row r="3" spans="1:29" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>40</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -698,7 +698,7 @@
       <c r="AC3" s="1"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A4" s="7"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
@@ -749,7 +749,7 @@
       <c r="AC4" s="1"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A5" s="7"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -804,7 +804,7 @@
       <c r="AC5" s="1"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A6" s="7"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -857,7 +857,7 @@
       <c r="AC6" s="1"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A7" s="7"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
@@ -912,7 +912,7 @@
       <c r="AC7" s="1"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A8" s="7"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -965,7 +965,7 @@
       <c r="AC8" s="1"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A9" s="7"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
@@ -1018,7 +1018,7 @@
       <c r="AC9" s="1"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A10" s="7"/>
+      <c r="A10" s="8"/>
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
@@ -1071,7 +1071,7 @@
       <c r="AC10" s="1"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A11" s="7"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
@@ -1124,7 +1124,7 @@
       <c r="AC11" s="1"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A12" s="7"/>
+      <c r="A12" s="8"/>
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
@@ -1179,7 +1179,7 @@
       <c r="AC12" s="1"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A13" s="7"/>
+      <c r="A13" s="8"/>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
@@ -1226,10 +1226,10 @@
       <c r="W13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="X13" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y13" s="8" t="s">
+      <c r="X13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y13" s="6" t="s">
         <v>37</v>
       </c>
       <c r="Z13" s="1"/>
@@ -1238,7 +1238,7 @@
       <c r="AC13" s="1"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A14" s="7"/>
+      <c r="A14" s="8"/>
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
@@ -1292,13 +1292,13 @@
       <c r="Z14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AA14" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB14" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC14" s="8" t="s">
+      <c r="AA14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC14" s="6" t="s">
         <v>37</v>
       </c>
     </row>

--- a/docs/functions_and_arguments.xlsx
+++ b/docs/functions_and_arguments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\proj\ROAD\road\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C03E5BF-51F3-4825-8D11-0165481B6DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591099A8-AAC4-4598-A941-A2C66DF8768E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="43">
   <si>
     <t>road_get_localities()</t>
   </si>
@@ -133,9 +133,6 @@
   </si>
   <si>
     <t>General arguments</t>
-  </si>
-  <si>
-    <t>Specific arguments</t>
   </si>
   <si>
     <t>Functions</t>
@@ -204,7 +201,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>•</t>
+      <t>○</t>
     </r>
     <r>
       <rPr>
@@ -216,6 +213,9 @@
       </rPr>
       <t xml:space="preserve"> Fuzzy search type (contains term)</t>
     </r>
+  </si>
+  <si>
+    <t>○</t>
   </si>
 </sst>
 </file>
@@ -297,34 +297,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
@@ -607,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA191576-E575-4853-A1BC-43BBBFBC35B4}">
-  <dimension ref="A1:AG18"/>
+  <dimension ref="A1:AB14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AB14"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,129 +619,120 @@
     <col min="3" max="28" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+    </row>
+    <row r="2" spans="1:28" ht="164.25" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="6"/>
-    </row>
-    <row r="2" spans="1:29" ht="164.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="T2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="U2" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="V2" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="W2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" s="6"/>
-    </row>
-    <row r="3" spans="1:29" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>37</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>0</v>
@@ -791,10 +781,9 @@
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
-      <c r="AC3" s="6"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
       <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
@@ -842,12 +831,11 @@
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
-      <c r="AC4" s="6"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
       <c r="B5" s="5" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>34</v>
@@ -876,12 +864,10 @@
       <c r="K5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="L5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -897,12 +883,11 @@
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
-      <c r="AC5" s="6"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
       <c r="B6" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>34</v>
@@ -932,8 +917,10 @@
         <v>34</v>
       </c>
       <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="3" t="s">
+      <c r="M6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O6" s="2"/>
@@ -950,12 +937,11 @@
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
-      <c r="AC6" s="6"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
       <c r="B7" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>34</v>
@@ -988,11 +974,9 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>34</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
@@ -1005,12 +989,11 @@
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
-      <c r="AC7" s="6"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
       <c r="B8" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>34</v>
@@ -1043,10 +1026,10 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="P8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -1058,12 +1041,11 @@
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
-      <c r="AC8" s="6"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
       <c r="B9" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>34</v>
@@ -1097,10 +1079,10 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="Q9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R9" s="2"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
@@ -1111,12 +1093,11 @@
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
-      <c r="AC9" s="6"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
       <c r="B10" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>34</v>
@@ -1151,10 +1132,10 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="R10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S10" s="2"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
@@ -1164,12 +1145,11 @@
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
-      <c r="AC10" s="6"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
       <c r="B11" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>34</v>
@@ -1205,7 +1185,9 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
+      <c r="S11" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="T11" s="1" t="s">
         <v>34</v>
       </c>
@@ -1217,12 +1199,11 @@
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
-      <c r="AC11" s="6"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
       <c r="B12" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>34</v>
@@ -1258,8 +1239,8 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
       <c r="U12" s="1" t="s">
         <v>34</v>
       </c>
@@ -1272,12 +1253,11 @@
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
-      <c r="AC12" s="6"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
       <c r="B13" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>34</v>
@@ -1313,26 +1293,28 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
       <c r="W13" s="1" t="s">
         <v>34</v>
       </c>
       <c r="X13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
+      <c r="Y13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
-      <c r="AC13" s="6"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>34</v>
@@ -1361,134 +1343,18 @@
       <c r="K14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z14" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="AA14" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AB14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AC14" s="6"/>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
-      <c r="AA15" s="6"/>
-      <c r="AB15" s="6"/>
-      <c r="AC15" s="6"/>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="6"/>
-      <c r="AB16" s="6"/>
-      <c r="AC16" s="6"/>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="6"/>
-      <c r="AA17" s="6"/>
-      <c r="AB17" s="6"/>
-      <c r="AC17" s="6"/>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="AG18" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C1:K1"/>
-    <mergeCell ref="L1:AB1"/>
-    <mergeCell ref="A3:A14"/>
+    <mergeCell ref="L1:Z1"/>
+    <mergeCell ref="A3:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/docs/functions_and_arguments.xlsx
+++ b/docs/functions_and_arguments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\proj\ROAD\road\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591099A8-AAC4-4598-A941-A2C66DF8768E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC14ECA6-7C66-4F32-8334-F5C62AFA25A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="46">
   <si>
     <t>road_get_localities()</t>
   </si>
@@ -216,6 +216,15 @@
   </si>
   <si>
     <t>○</t>
+  </si>
+  <si>
+    <t>Specific arguments</t>
+  </si>
+  <si>
+    <t>road_list_argument_values()</t>
+  </si>
+  <si>
+    <t>road_summarize_archaeology()</t>
   </si>
 </sst>
 </file>
@@ -606,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA191576-E575-4853-A1BC-43BBBFBC35B4}">
-  <dimension ref="A1:AB14"/>
+  <dimension ref="A1:AB16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection sqref="A1:AB16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,7 +640,9 @@
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
+      <c r="L1" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
@@ -646,6 +657,8 @@
       <c r="X1" s="8"/>
       <c r="Y1" s="8"/>
       <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
     </row>
     <row r="2" spans="1:28" ht="164.25" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
@@ -1313,6 +1326,7 @@
       <c r="AB13" s="2"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
       <c r="B14" s="5" t="s">
         <v>1</v>
       </c>
@@ -1348,13 +1362,23 @@
       </c>
       <c r="AB14" s="1" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C1:K1"/>
-    <mergeCell ref="L1:Z1"/>
-    <mergeCell ref="A3:A13"/>
+    <mergeCell ref="L1:AB1"/>
+    <mergeCell ref="A3:A14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/docs/functions_and_arguments.xlsx
+++ b/docs/functions_and_arguments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\proj\ROAD\road\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8856001-C0BD-4EF8-ABB8-2738933A2009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2132551-3E10-4FF5-9398-9A0E3B42262F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="92">
   <si>
     <t>road_get_localities()</t>
   </si>
@@ -64,15 +64,6 @@
     <t>road_get_plantremains()</t>
   </si>
   <si>
-    <t>continents</t>
-  </si>
-  <si>
-    <t>subcontinents</t>
-  </si>
-  <si>
-    <t>countries</t>
-  </si>
-  <si>
     <t>locality_types</t>
   </si>
   <si>
@@ -88,9 +79,6 @@
     <t>age_max</t>
   </si>
   <si>
-    <t>material_dated</t>
-  </si>
-  <si>
     <t>tool_list</t>
   </si>
   <si>
@@ -140,9 +128,6 @@
   </si>
   <si>
     <t>technocomplexes</t>
-  </si>
-  <si>
-    <t>dating_methods</t>
   </si>
   <si>
     <t>human_genus</t>
@@ -388,6 +373,48 @@
   </si>
   <si>
     <t>Help</t>
+  </si>
+  <si>
+    <t>locality_type</t>
+  </si>
+  <si>
+    <t>cultural_period</t>
+  </si>
+  <si>
+    <t>technocomplex</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>organic_tool_interpretation</t>
+  </si>
+  <si>
+    <t>symbolic_artifact_interpretation</t>
+  </si>
+  <si>
+    <t>miscellaneous_find_material</t>
+  </si>
+  <si>
+    <t>bibtex</t>
+  </si>
+  <si>
+    <t>assemblages</t>
+  </si>
+  <si>
+    <t>localities</t>
+  </si>
+  <si>
+    <t>road_get_lithic_typologies()</t>
+  </si>
+  <si>
+    <t>road_get_lithic_raw_materials()</t>
+  </si>
+  <si>
+    <t>road_get_features()</t>
+  </si>
+  <si>
+    <t>road_get_publications()</t>
   </si>
 </sst>
 </file>
@@ -483,7 +510,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -511,15 +538,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -805,170 +835,172 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA191576-E575-4853-A1BC-43BBBFBC35B4}">
-  <dimension ref="A1:AB16"/>
+  <dimension ref="A1:AC17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AB16"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="33.140625" customWidth="1"/>
-    <col min="3" max="28" width="3.7109375" customWidth="1"/>
+    <col min="3" max="29" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="10"/>
-      <c r="AB1" s="10"/>
+      <c r="C1" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
     </row>
-    <row r="2" spans="1:28" ht="171.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="166.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="4" t="s">
+      <c r="O2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="4" t="s">
+      <c r="R2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="U2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="V2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="W2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="X2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="U2" s="4" t="s">
+      <c r="Y2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="Z2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="W2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z2" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="AA2" s="4" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="AB2" s="4" t="s">
-        <v>20</v>
+        <v>86</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>80</v>
+    <row r="3" spans="1:29" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>75</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
@@ -986,39 +1018,38 @@
       <c r="Y3" s="6"/>
       <c r="Z3" s="6"/>
       <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
@@ -1036,42 +1067,41 @@
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
       <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>41</v>
+        <v>30</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="M5" s="9"/>
       <c r="N5" s="6"/>
@@ -1088,46 +1118,48 @@
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
-      <c r="AB5" s="6"/>
+      <c r="AB5" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L6" s="9"/>
-      <c r="M6" s="13" t="s">
-        <v>41</v>
+      <c r="M6" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -1142,45 +1174,47 @@
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
       <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
+      <c r="AB6" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
-      <c r="O7" s="13" t="s">
-        <v>41</v>
+      <c r="O7" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="P7" s="9"/>
       <c r="Q7" s="6"/>
@@ -1194,46 +1228,48 @@
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
       <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
+      <c r="AB7" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="9"/>
-      <c r="P8" s="13" t="s">
-        <v>41</v>
+      <c r="P8" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
@@ -1246,39 +1282,41 @@
       <c r="Y8" s="6"/>
       <c r="Z8" s="6"/>
       <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
+      <c r="AB8" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
@@ -1286,7 +1324,7 @@
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
@@ -1298,39 +1336,41 @@
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
       <c r="AA9" s="6"/>
-      <c r="AB9" s="6"/>
+      <c r="AB9" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
@@ -1339,7 +1379,7 @@
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
       <c r="R10" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
@@ -1350,39 +1390,41 @@
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
       <c r="AA10" s="6"/>
-      <c r="AB10" s="6"/>
+      <c r="AB10" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
@@ -1392,10 +1434,10 @@
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
       <c r="S11" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
@@ -1404,39 +1446,41 @@
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
       <c r="AA11" s="6"/>
-      <c r="AB11" s="6"/>
+      <c r="AB11" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
@@ -1448,49 +1492,51 @@
       <c r="S12" s="8"/>
       <c r="T12" s="8"/>
       <c r="U12" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="V12" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="W12" s="6"/>
       <c r="X12" s="6"/>
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
       <c r="AA12" s="6"/>
-      <c r="AB12" s="6"/>
+      <c r="AB12" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
@@ -1504,51 +1550,53 @@
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
       <c r="W13" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="X13" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Y13" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Z13" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AA13" s="6"/>
-      <c r="AB13" s="6"/>
+      <c r="AB13" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
       <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -1565,29 +1613,24 @@
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
-      <c r="AA14" s="5" t="s">
-        <v>34</v>
-      </c>
       <c r="AB14" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>82</v>
-      </c>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
       <c r="B15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -1603,13 +1646,19 @@
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
-      <c r="AA15" s="2"/>
-      <c r="AB15" s="2"/>
+      <c r="AA15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC15" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
+    <row r="16" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>77</v>
+      </c>
       <c r="B16" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1636,14 +1685,44 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
-      <c r="AB16" s="2"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C1:K1"/>
-    <mergeCell ref="L1:AB1"/>
+    <mergeCell ref="L1:AA1"/>
     <mergeCell ref="A3:A14"/>
-    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1668,246 +1747,246 @@
     <row r="1" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="10"/>
-      <c r="AB1" s="10"/>
-      <c r="AC1" s="10"/>
-      <c r="AD1" s="10"/>
-      <c r="AE1" s="10"/>
-      <c r="AF1" s="10"/>
-      <c r="AG1" s="10"/>
-      <c r="AH1" s="10"/>
-      <c r="AI1" s="10"/>
-      <c r="AJ1" s="10"/>
-      <c r="AK1" s="10"/>
-      <c r="AL1" s="10"/>
-      <c r="AM1" s="12"/>
-      <c r="AN1" s="12"/>
-      <c r="AO1" s="12"/>
-      <c r="AP1" s="12"/>
-      <c r="AQ1" s="12"/>
-      <c r="AR1" s="12"/>
-      <c r="AS1" s="12"/>
-      <c r="AT1" s="12"/>
-      <c r="AU1" s="12"/>
-      <c r="AV1" s="12"/>
-      <c r="AW1" s="12"/>
-      <c r="AX1" s="12"/>
-      <c r="AY1" s="12"/>
-      <c r="AZ1" s="12"/>
-      <c r="BB1" s="10"/>
-      <c r="BC1" s="10"/>
-      <c r="BD1" s="10"/>
-      <c r="BE1" s="10"/>
-      <c r="BF1" s="10"/>
-      <c r="BG1" s="10"/>
-      <c r="BH1" s="10"/>
-      <c r="BI1" s="10"/>
-      <c r="BJ1" s="10"/>
-      <c r="BK1" s="10"/>
-      <c r="BL1" s="12"/>
-      <c r="BM1" s="12"/>
-      <c r="BN1" s="12"/>
-      <c r="BO1" s="12"/>
-      <c r="BP1" s="12"/>
-      <c r="BQ1" s="12"/>
-      <c r="BR1" s="12"/>
-      <c r="BS1" s="12"/>
-      <c r="BT1" s="12"/>
-      <c r="BU1" s="12"/>
-      <c r="BV1" s="12"/>
-      <c r="BW1" s="12"/>
+      <c r="C1" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="12"/>
+      <c r="AJ1" s="12"/>
+      <c r="AK1" s="12"/>
+      <c r="AL1" s="12"/>
+      <c r="AM1" s="14"/>
+      <c r="AN1" s="14"/>
+      <c r="AO1" s="14"/>
+      <c r="AP1" s="14"/>
+      <c r="AQ1" s="14"/>
+      <c r="AR1" s="14"/>
+      <c r="AS1" s="14"/>
+      <c r="AT1" s="14"/>
+      <c r="AU1" s="14"/>
+      <c r="AV1" s="14"/>
+      <c r="AW1" s="14"/>
+      <c r="AX1" s="14"/>
+      <c r="AY1" s="14"/>
+      <c r="AZ1" s="14"/>
+      <c r="BB1" s="12"/>
+      <c r="BC1" s="12"/>
+      <c r="BD1" s="12"/>
+      <c r="BE1" s="12"/>
+      <c r="BF1" s="12"/>
+      <c r="BG1" s="12"/>
+      <c r="BH1" s="12"/>
+      <c r="BI1" s="12"/>
+      <c r="BJ1" s="12"/>
+      <c r="BK1" s="12"/>
+      <c r="BL1" s="14"/>
+      <c r="BM1" s="14"/>
+      <c r="BN1" s="14"/>
+      <c r="BO1" s="14"/>
+      <c r="BP1" s="14"/>
+      <c r="BQ1" s="14"/>
+      <c r="BR1" s="14"/>
+      <c r="BS1" s="14"/>
+      <c r="BT1" s="14"/>
+      <c r="BU1" s="14"/>
+      <c r="BV1" s="14"/>
+      <c r="BW1" s="14"/>
     </row>
     <row r="2" spans="1:75" ht="219" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="I2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="4" t="s">
+      <c r="R2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="T2" s="4" t="s">
+      <c r="Z2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="AA2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="AB2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="AG2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="AH2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="AI2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="AJ2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AK2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AL2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AO2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AD2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AP2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AR2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AS2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AF2" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG2" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="AI2" s="4" t="s">
+      <c r="AY2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AJ2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK2" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="AL2" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM2" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AN2" s="4" t="s">
+      <c r="AZ2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AO2" s="4" t="s">
+      <c r="BA2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AP2" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="AR2" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS2" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AT2" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="AU2" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AV2" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="AW2" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AX2" s="4" t="s">
+      <c r="BB2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AY2" s="4" t="s">
+      <c r="BC2" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="AZ2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="BA2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="BB2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="BC2" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="BD2" s="4"/>
       <c r="BE2" s="4"/>
@@ -1931,53 +2010,53 @@
       <c r="BW2" s="4"/>
     </row>
     <row r="3" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>36</v>
+      <c r="A3" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
@@ -2040,67 +2119,67 @@
       <c r="BW3" s="6"/>
     </row>
     <row r="4" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
@@ -2155,76 +2234,76 @@
       <c r="BW4" s="5"/>
     </row>
     <row r="5" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
       <c r="Q5" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AB5" s="6"/>
       <c r="AC5" s="5"/>
@@ -2276,79 +2355,79 @@
       <c r="BW5" s="5"/>
     </row>
     <row r="6" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7"/>
       <c r="N6" s="5"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
       <c r="AA6" s="6"/>
       <c r="AB6" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AC6" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AD6" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AE6" s="5"/>
       <c r="AF6" s="5"/>
@@ -2397,67 +2476,67 @@
       <c r="BW6" s="5"/>
     </row>
     <row r="7" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="7"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
@@ -2466,16 +2545,16 @@
       <c r="AC7" s="5"/>
       <c r="AD7" s="5"/>
       <c r="AE7" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AF7" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AG7" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AH7" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AI7" s="5"/>
       <c r="AJ7" s="5"/>
@@ -2520,67 +2599,67 @@
       <c r="BW7" s="5"/>
     </row>
     <row r="8" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Y8" s="6"/>
       <c r="Z8" s="6"/>
@@ -2593,19 +2672,19 @@
       <c r="AG8" s="5"/>
       <c r="AH8" s="5"/>
       <c r="AI8" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AJ8" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AK8" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AL8" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AM8" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AN8" s="6"/>
       <c r="AO8" s="6"/>
@@ -2645,67 +2724,67 @@
       <c r="BW8" s="5"/>
     </row>
     <row r="9" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="T9" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="X9" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
@@ -2723,7 +2802,7 @@
       <c r="AL9" s="5"/>
       <c r="AM9" s="6"/>
       <c r="AN9" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AO9" s="6"/>
       <c r="AP9" s="6"/>
@@ -2762,67 +2841,67 @@
       <c r="BW9" s="5"/>
     </row>
     <row r="10" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="V10" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="X10" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
@@ -2841,13 +2920,13 @@
       <c r="AM10" s="6"/>
       <c r="AN10" s="6"/>
       <c r="AO10" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AP10" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AQ10" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AR10" s="5"/>
       <c r="AS10" s="5"/>
@@ -2883,67 +2962,67 @@
       <c r="BW10" s="5"/>
     </row>
     <row r="11" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="V11" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="W11" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="X11" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
@@ -2965,22 +3044,22 @@
       <c r="AP11" s="6"/>
       <c r="AQ11" s="5"/>
       <c r="AR11" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AS11" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AT11" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AU11" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AV11" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AW11" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AX11" s="5"/>
       <c r="AY11" s="6"/>
@@ -3010,67 +3089,67 @@
       <c r="BW11" s="5"/>
     </row>
     <row r="12" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="V12" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="W12" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="X12" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
@@ -3098,10 +3177,10 @@
       <c r="AV12" s="5"/>
       <c r="AW12" s="5"/>
       <c r="AX12" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AY12" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AZ12" s="6"/>
       <c r="BA12" s="6"/>
@@ -3129,67 +3208,67 @@
       <c r="BW12" s="5"/>
     </row>
     <row r="13" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="T13" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="V13" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="W13" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="X13" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
@@ -3219,16 +3298,16 @@
       <c r="AX13" s="5"/>
       <c r="AY13" s="5"/>
       <c r="AZ13" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="BA13" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="BB13" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="BC13" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="BD13" s="5"/>
       <c r="BE13" s="5"/>
@@ -3252,39 +3331,39 @@
       <c r="BW13" s="5"/>
     </row>
     <row r="14" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3295,16 +3374,16 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="W14" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="X14" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
@@ -3361,7 +3440,7 @@
     <row r="15" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -3440,7 +3519,7 @@
     <row r="16" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>

--- a/docs/functions_and_arguments.xlsx
+++ b/docs/functions_and_arguments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\proj\ROAD\road\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2132551-3E10-4FF5-9398-9A0E3B42262F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B34A6FE-5CAF-4A5A-A0EB-51D7FE5BD6F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="94">
   <si>
     <t>road_get_localities()</t>
   </si>
@@ -416,12 +416,18 @@
   <si>
     <t>road_get_publications()</t>
   </si>
+  <si>
+    <t>LOD 2</t>
+  </si>
+  <si>
+    <t>LOD 3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -489,6 +495,19 @@
       <name val="Aptos"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -498,7 +517,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -506,11 +525,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -531,18 +565,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -550,6 +572,50 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -835,26 +901,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA191576-E575-4853-A1BC-43BBBFBC35B4}">
-  <dimension ref="A1:AC17"/>
+  <dimension ref="A1:AD17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD17" sqref="A1:AD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" customWidth="1"/>
-    <col min="3" max="29" width="3.7109375" customWidth="1"/>
+    <col min="1" max="2" width="3.7265625" customWidth="1"/>
+    <col min="3" max="3" width="33.1796875" customWidth="1"/>
+    <col min="4" max="30" width="3.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="12" t="s">
+    <row r="1" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="12"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
@@ -862,906 +930,10 @@
       <c r="I1" s="12"/>
       <c r="J1" s="12"/>
       <c r="K1" s="12"/>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="12"/>
+      <c r="M1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
-    </row>
-    <row r="2" spans="1:29" ht="166.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA2" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB2" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC2" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="9"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="9"/>
-      <c r="M6" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="T11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="6"/>
-      <c r="AB11" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="V12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="6"/>
-      <c r="AA12" s="6"/>
-      <c r="AB12" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="X13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA13" s="6"/>
-      <c r="AB13" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
-      <c r="AB14" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
-      <c r="AA15" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC15" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
-      <c r="AA17" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="L1:AA1"/>
-    <mergeCell ref="A3:A14"/>
-    <mergeCell ref="A16:A17"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DF78EAC-8188-4FCB-BF9A-2F2ECCDC7D75}">
-  <dimension ref="A1:BW16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U30" sqref="U30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" customWidth="1"/>
-    <col min="3" max="75" width="3.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1" s="12"/>
       <c r="N1" s="12"/>
       <c r="O1" s="12"/>
       <c r="P1" s="12"/>
@@ -1779,52 +951,994 @@
       <c r="AB1" s="12"/>
       <c r="AC1" s="12"/>
       <c r="AD1" s="12"/>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="12"/>
-      <c r="AG1" s="12"/>
-      <c r="AH1" s="12"/>
-      <c r="AI1" s="12"/>
-      <c r="AJ1" s="12"/>
-      <c r="AK1" s="12"/>
-      <c r="AL1" s="12"/>
-      <c r="AM1" s="14"/>
-      <c r="AN1" s="14"/>
-      <c r="AO1" s="14"/>
-      <c r="AP1" s="14"/>
-      <c r="AQ1" s="14"/>
-      <c r="AR1" s="14"/>
-      <c r="AS1" s="14"/>
-      <c r="AT1" s="14"/>
-      <c r="AU1" s="14"/>
-      <c r="AV1" s="14"/>
-      <c r="AW1" s="14"/>
-      <c r="AX1" s="14"/>
-      <c r="AY1" s="14"/>
-      <c r="AZ1" s="14"/>
-      <c r="BB1" s="12"/>
-      <c r="BC1" s="12"/>
-      <c r="BD1" s="12"/>
-      <c r="BE1" s="12"/>
-      <c r="BF1" s="12"/>
-      <c r="BG1" s="12"/>
-      <c r="BH1" s="12"/>
-      <c r="BI1" s="12"/>
-      <c r="BJ1" s="12"/>
-      <c r="BK1" s="12"/>
-      <c r="BL1" s="14"/>
-      <c r="BM1" s="14"/>
-      <c r="BN1" s="14"/>
-      <c r="BO1" s="14"/>
-      <c r="BP1" s="14"/>
-      <c r="BQ1" s="14"/>
-      <c r="BR1" s="14"/>
-      <c r="BS1" s="14"/>
-      <c r="BT1" s="14"/>
-      <c r="BU1" s="14"/>
-      <c r="BV1" s="14"/>
-      <c r="BW1" s="14"/>
     </row>
-    <row r="2" spans="1:75" ht="219" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" ht="159" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="V2" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="W2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="X2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z2" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB2" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC2" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD2" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="15">
+        <v>1</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="19"/>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="18"/>
+    </row>
+    <row r="4" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="14"/>
+      <c r="B4" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="18"/>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="19"/>
+      <c r="AD4" s="18"/>
+    </row>
+    <row r="5" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="14"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="23"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="18"/>
+      <c r="Z5" s="18"/>
+      <c r="AA5" s="18"/>
+      <c r="AB5" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="18"/>
+    </row>
+    <row r="6" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="14"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="23"/>
+      <c r="N6" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="18"/>
+      <c r="AA6" s="18"/>
+      <c r="AB6" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC6" s="19"/>
+      <c r="AD6" s="18"/>
+    </row>
+    <row r="7" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="14"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="18"/>
+      <c r="AA7" s="18"/>
+      <c r="AB7" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC7" s="19"/>
+      <c r="AD7" s="18"/>
+    </row>
+    <row r="8" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="14"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="18"/>
+      <c r="AA8" s="18"/>
+      <c r="AB8" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC8" s="19"/>
+      <c r="AD8" s="18"/>
+    </row>
+    <row r="9" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="14"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="18"/>
+      <c r="Z9" s="18"/>
+      <c r="AA9" s="18"/>
+      <c r="AB9" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC9" s="19"/>
+      <c r="AD9" s="18"/>
+    </row>
+    <row r="10" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="14"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="18"/>
+      <c r="Y10" s="18"/>
+      <c r="Z10" s="18"/>
+      <c r="AA10" s="18"/>
+      <c r="AB10" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC10" s="19"/>
+      <c r="AD10" s="18"/>
+    </row>
+    <row r="11" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="14"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U11" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="18"/>
+      <c r="Y11" s="18"/>
+      <c r="Z11" s="18"/>
+      <c r="AA11" s="18"/>
+      <c r="AB11" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC11" s="19"/>
+      <c r="AD11" s="18"/>
+    </row>
+    <row r="12" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="14"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="W12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="X12" s="18"/>
+      <c r="Y12" s="18"/>
+      <c r="Z12" s="18"/>
+      <c r="AA12" s="18"/>
+      <c r="AB12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC12" s="19"/>
+      <c r="AD12" s="18"/>
+    </row>
+    <row r="13" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="14"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="18"/>
+      <c r="X13" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y13" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z13" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA13" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB13" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC13" s="19"/>
+      <c r="AD13" s="18"/>
+    </row>
+    <row r="14" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="14"/>
+      <c r="B14" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC14" s="19"/>
+      <c r="AD14" s="19"/>
+    </row>
+    <row r="15" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="14"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="19"/>
+      <c r="AC15" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD15" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="26"/>
+      <c r="C16" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="19"/>
+      <c r="AC16" s="19"/>
+      <c r="AD16" s="25"/>
+    </row>
+    <row r="17" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="14"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="25"/>
+      <c r="X17" s="25"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="19"/>
+      <c r="AC17" s="19"/>
+      <c r="AD17" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="M1:AD1"/>
+    <mergeCell ref="D1:L1"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A3:A15"/>
+    <mergeCell ref="A1:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DF78EAC-8188-4FCB-BF9A-2F2ECCDC7D75}">
+  <dimension ref="A1:BW16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U30" sqref="U30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="3.7265625" customWidth="1"/>
+    <col min="2" max="2" width="33.1796875" customWidth="1"/>
+    <col min="3" max="75" width="3.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:75" x14ac:dyDescent="0.35">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="8"/>
+      <c r="AH1" s="8"/>
+      <c r="AI1" s="8"/>
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="10"/>
+      <c r="AN1" s="10"/>
+      <c r="AO1" s="10"/>
+      <c r="AP1" s="10"/>
+      <c r="AQ1" s="10"/>
+      <c r="AR1" s="10"/>
+      <c r="AS1" s="10"/>
+      <c r="AT1" s="10"/>
+      <c r="AU1" s="10"/>
+      <c r="AV1" s="10"/>
+      <c r="AW1" s="10"/>
+      <c r="AX1" s="10"/>
+      <c r="AY1" s="10"/>
+      <c r="AZ1" s="10"/>
+      <c r="BB1" s="8"/>
+      <c r="BC1" s="8"/>
+      <c r="BD1" s="8"/>
+      <c r="BE1" s="8"/>
+      <c r="BF1" s="8"/>
+      <c r="BG1" s="8"/>
+      <c r="BH1" s="8"/>
+      <c r="BI1" s="8"/>
+      <c r="BJ1" s="8"/>
+      <c r="BK1" s="8"/>
+      <c r="BL1" s="10"/>
+      <c r="BM1" s="10"/>
+      <c r="BN1" s="10"/>
+      <c r="BO1" s="10"/>
+      <c r="BP1" s="10"/>
+      <c r="BQ1" s="10"/>
+      <c r="BR1" s="10"/>
+      <c r="BS1" s="10"/>
+      <c r="BT1" s="10"/>
+      <c r="BU1" s="10"/>
+      <c r="BV1" s="10"/>
+      <c r="BW1" s="10"/>
+    </row>
+    <row r="2" spans="1:75" ht="213" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>41</v>
@@ -2009,8 +2123,8 @@
       <c r="BV2" s="4"/>
       <c r="BW2" s="4"/>
     </row>
-    <row r="3" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:75" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2118,8 +2232,8 @@
       <c r="BV3" s="6"/>
       <c r="BW3" s="6"/>
     </row>
-    <row r="4" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
+    <row r="4" spans="1:75" x14ac:dyDescent="0.35">
+      <c r="A4" s="9"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2233,8 +2347,8 @@
       <c r="BV4" s="5"/>
       <c r="BW4" s="5"/>
     </row>
-    <row r="5" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
+    <row r="5" spans="1:75" x14ac:dyDescent="0.35">
+      <c r="A5" s="9"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2354,8 +2468,8 @@
       <c r="BV5" s="5"/>
       <c r="BW5" s="5"/>
     </row>
-    <row r="6" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
+    <row r="6" spans="1:75" x14ac:dyDescent="0.35">
+      <c r="A6" s="9"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2475,8 +2589,8 @@
       <c r="BV6" s="5"/>
       <c r="BW6" s="5"/>
     </row>
-    <row r="7" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
+    <row r="7" spans="1:75" x14ac:dyDescent="0.35">
+      <c r="A7" s="9"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2598,8 +2712,8 @@
       <c r="BV7" s="5"/>
       <c r="BW7" s="5"/>
     </row>
-    <row r="8" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
+    <row r="8" spans="1:75" x14ac:dyDescent="0.35">
+      <c r="A8" s="9"/>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -2723,8 +2837,8 @@
       <c r="BV8" s="5"/>
       <c r="BW8" s="5"/>
     </row>
-    <row r="9" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
+    <row r="9" spans="1:75" x14ac:dyDescent="0.35">
+      <c r="A9" s="9"/>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2840,8 +2954,8 @@
       <c r="BV9" s="5"/>
       <c r="BW9" s="5"/>
     </row>
-    <row r="10" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
+    <row r="10" spans="1:75" x14ac:dyDescent="0.35">
+      <c r="A10" s="9"/>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
@@ -2961,8 +3075,8 @@
       <c r="BV10" s="5"/>
       <c r="BW10" s="5"/>
     </row>
-    <row r="11" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
+    <row r="11" spans="1:75" x14ac:dyDescent="0.35">
+      <c r="A11" s="9"/>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
@@ -3088,8 +3202,8 @@
       <c r="BV11" s="5"/>
       <c r="BW11" s="5"/>
     </row>
-    <row r="12" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
+    <row r="12" spans="1:75" x14ac:dyDescent="0.35">
+      <c r="A12" s="9"/>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
@@ -3207,8 +3321,8 @@
       <c r="BV12" s="5"/>
       <c r="BW12" s="5"/>
     </row>
-    <row r="13" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
+    <row r="13" spans="1:75" x14ac:dyDescent="0.35">
+      <c r="A13" s="9"/>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
@@ -3330,8 +3444,8 @@
       <c r="BV13" s="5"/>
       <c r="BW13" s="5"/>
     </row>
-    <row r="14" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
+    <row r="14" spans="1:75" x14ac:dyDescent="0.35">
+      <c r="A14" s="9"/>
       <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
@@ -3437,7 +3551,7 @@
       <c r="BV14" s="5"/>
       <c r="BW14" s="5"/>
     </row>
-    <row r="15" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
         <v>38</v>
@@ -3516,7 +3630,7 @@
       <c r="BV15" s="2"/>
       <c r="BW15" s="2"/>
     </row>
-    <row r="16" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="1" t="s">
         <v>39</v>
